--- a/figures/source_data/source_ED_Fig.1b.xlsx
+++ b/figures/source_data/source_ED_Fig.1b.xlsx
@@ -387,283 +387,283 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Achromobacter xylosoxidans</t>
+          <t>Pseudomonas aeruginosa</t>
         </is>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Achromobacter xylosoxidans</t>
+          <t>Pseudomonas aeruginosa</t>
         </is>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Achromobacter xylosoxidans</t>
+          <t>Pseudomonas aeruginosa</t>
         </is>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Achromobacter xylosoxidans</t>
+          <t>Pseudomonas aeruginosa</t>
         </is>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Achromobacter xylosoxidans</t>
+          <t>Pseudomonas aeruginosa</t>
         </is>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>16</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Achromobacter xylosoxidans</t>
+          <t>Pseudomonas aeruginosa</t>
         </is>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>32</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Achromobacter xylosoxidans</t>
+          <t>Pseudomonas aeruginosa</t>
         </is>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>64</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Acinetobacter baumannii</t>
+          <t>Serratia marcescens</t>
         </is>
       </c>
       <c r="B9">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Acinetobacter baumannii</t>
+          <t>Serratia marcescens</t>
         </is>
       </c>
       <c r="B10">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Acinetobacter baumannii</t>
+          <t>Serratia marcescens</t>
         </is>
       </c>
       <c r="B11">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Acinetobacter baumannii</t>
+          <t>Serratia marcescens</t>
         </is>
       </c>
       <c r="B12">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Acinetobacter baumannii</t>
+          <t>Serratia marcescens</t>
         </is>
       </c>
       <c r="B13">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>16</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Acinetobacter baumannii</t>
+          <t>Serratia marcescens</t>
         </is>
       </c>
       <c r="B14">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>32</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Acinetobacter baumannii</t>
+          <t>Serratia marcescens</t>
         </is>
       </c>
       <c r="B15">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>64</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Acinetobacter johnsonii</t>
+          <t>Pseudomonas putida</t>
         </is>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Acinetobacter johnsonii</t>
+          <t>Pseudomonas putida</t>
         </is>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Acinetobacter johnsonii</t>
+          <t>Pseudomonas putida</t>
         </is>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Acinetobacter johnsonii</t>
+          <t>Pseudomonas putida</t>
         </is>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -675,155 +675,185 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Acinetobacter johnsonii</t>
+          <t>Pseudomonas putida</t>
         </is>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>16</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Acinetobacter johnsonii</t>
+          <t>Pseudomonas putida</t>
         </is>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>32</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Acinetobacter johnsonii</t>
+          <t>Pseudomonas putida</t>
         </is>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>64</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Acinetobacter junii</t>
+          <t>Burkholderia cenocepacia complex</t>
         </is>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>includes Burkholderia cenocepacia, Burkholderia multivorans, and Burkholderia vietnamensis</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Acinetobacter junii</t>
+          <t>Burkholderia cenocepacia complex</t>
         </is>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>includes Burkholderia cenocepacia, Burkholderia multivorans, and Burkholderia vietnamensis</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Acinetobacter junii</t>
+          <t>Burkholderia cenocepacia complex</t>
         </is>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>includes Burkholderia cenocepacia, Burkholderia multivorans, and Burkholderia vietnamensis</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Acinetobacter junii</t>
+          <t>Burkholderia cenocepacia complex</t>
         </is>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>8</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>includes Burkholderia cenocepacia, Burkholderia multivorans, and Burkholderia vietnamensis</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Acinetobacter junii</t>
+          <t>Burkholderia cenocepacia complex</t>
         </is>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C27">
         <v>16</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>includes Burkholderia cenocepacia, Burkholderia multivorans, and Burkholderia vietnamensis</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Acinetobacter junii</t>
+          <t>Burkholderia cenocepacia complex</t>
         </is>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>32</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>includes Burkholderia cenocepacia, Burkholderia multivorans, and Burkholderia vietnamensis</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Acinetobacter junii</t>
+          <t>Burkholderia cenocepacia complex</t>
         </is>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>64</v>
@@ -831,159 +861,164 @@
       <c r="D29">
         <v>1</v>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>includes Burkholderia cenocepacia, Burkholderia multivorans, and Burkholderia vietnamensis</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Acinetobacter lwoffii</t>
+          <t>Klebsiella pneumoniae</t>
         </is>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Acinetobacter lwoffii</t>
+          <t>Klebsiella pneumoniae</t>
         </is>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Acinetobacter lwoffii</t>
+          <t>Klebsiella pneumoniae</t>
         </is>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="C32">
         <v>4</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Acinetobacter lwoffii</t>
+          <t>Klebsiella pneumoniae</t>
         </is>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="C33">
         <v>8</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Acinetobacter lwoffii</t>
+          <t>Klebsiella pneumoniae</t>
         </is>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="C34">
         <v>16</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Acinetobacter lwoffii</t>
+          <t>Klebsiella pneumoniae</t>
         </is>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="C35">
         <v>32</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Acinetobacter lwoffii</t>
+          <t>Klebsiella pneumoniae</t>
         </is>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="C36">
         <v>64</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Acinetobacter pittii</t>
+          <t>Enterobacter cloacae</t>
         </is>
       </c>
       <c r="B37">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Acinetobacter pittii</t>
+          <t>Enterobacter cloacae</t>
         </is>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Acinetobacter pittii</t>
+          <t>Enterobacter cloacae</t>
         </is>
       </c>
       <c r="B39">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -995,75 +1030,75 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Acinetobacter pittii</t>
+          <t>Enterobacter cloacae</t>
         </is>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C40">
         <v>8</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Acinetobacter pittii</t>
+          <t>Enterobacter cloacae</t>
         </is>
       </c>
       <c r="B41">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C41">
         <v>16</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Acinetobacter pittii</t>
+          <t>Enterobacter cloacae</t>
         </is>
       </c>
       <c r="B42">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C42">
         <v>32</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Acinetobacter pittii</t>
+          <t>Enterobacter cloacae</t>
         </is>
       </c>
       <c r="B43">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C43">
         <v>64</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Acinetobacter ursingii</t>
+          <t>Citrobacter freundii</t>
         </is>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1075,334 +1110,299 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Acinetobacter ursingii</t>
+          <t>Citrobacter freundii</t>
         </is>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Acinetobacter ursingii</t>
+          <t>Citrobacter freundii</t>
         </is>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Acinetobacter ursingii</t>
+          <t>Citrobacter freundii</t>
         </is>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C47">
         <v>8</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Acinetobacter ursingii</t>
+          <t>Citrobacter freundii</t>
         </is>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C48">
         <v>16</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Acinetobacter ursingii</t>
+          <t>Citrobacter freundii</t>
         </is>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C49">
         <v>32</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Acinetobacter ursingii</t>
+          <t>Citrobacter freundii</t>
         </is>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>64</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Burkholderia cenocepacia complex</t>
+          <t>Morganella morganii</t>
         </is>
       </c>
       <c r="B51">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>includes Burkholderia cenocepacia, Burkholderia multivorans, and Burkholderia vietnamensis</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Burkholderia cenocepacia complex</t>
+          <t>Morganella morganii</t>
         </is>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
       <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>includes Burkholderia cenocepacia, Burkholderia multivorans, and Burkholderia vietnamensis</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Burkholderia cenocepacia complex</t>
+          <t>Morganella morganii</t>
         </is>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C53">
         <v>4</v>
       </c>
       <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>includes Burkholderia cenocepacia, Burkholderia multivorans, and Burkholderia vietnamensis</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Burkholderia cenocepacia complex</t>
+          <t>Morganella morganii</t>
         </is>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>includes Burkholderia cenocepacia, Burkholderia multivorans, and Burkholderia vietnamensis</t>
-        </is>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Burkholderia cenocepacia complex</t>
+          <t>Morganella morganii</t>
         </is>
       </c>
       <c r="B55">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C55">
         <v>16</v>
       </c>
       <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>includes Burkholderia cenocepacia, Burkholderia multivorans, and Burkholderia vietnamensis</t>
-        </is>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Burkholderia cenocepacia complex</t>
+          <t>Morganella morganii</t>
         </is>
       </c>
       <c r="B56">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C56">
         <v>32</v>
       </c>
       <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>includes Burkholderia cenocepacia, Burkholderia multivorans, and Burkholderia vietnamensis</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Burkholderia cenocepacia complex</t>
+          <t>Morganella morganii</t>
         </is>
       </c>
       <c r="B57">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C57">
         <v>64</v>
       </c>
       <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>includes Burkholderia cenocepacia, Burkholderia multivorans, and Burkholderia vietnamensis</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Citrobacter freundii</t>
+          <t>Stenotrophomonas maltophilia</t>
         </is>
       </c>
       <c r="B58">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Citrobacter freundii</t>
+          <t>Stenotrophomonas maltophilia</t>
         </is>
       </c>
       <c r="B59">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Citrobacter freundii</t>
+          <t>Stenotrophomonas maltophilia</t>
         </is>
       </c>
       <c r="B60">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C60">
         <v>4</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Citrobacter freundii</t>
+          <t>Stenotrophomonas maltophilia</t>
         </is>
       </c>
       <c r="B61">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C61">
         <v>8</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Citrobacter freundii</t>
+          <t>Stenotrophomonas maltophilia</t>
         </is>
       </c>
       <c r="B62">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C62">
         <v>16</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Citrobacter freundii</t>
+          <t>Stenotrophomonas maltophilia</t>
         </is>
       </c>
       <c r="B63">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C63">
         <v>32</v>
@@ -1414,17 +1414,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Citrobacter freundii</t>
+          <t>Stenotrophomonas maltophilia</t>
         </is>
       </c>
       <c r="B64">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C64">
         <v>64</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1472,7 +1472,7 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -1488,7 +1488,7 @@
         <v>8</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -1504,7 +1504,7 @@
         <v>16</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -1536,49 +1536,49 @@
         <v>64</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Enterobacter cloacae</t>
+          <t>Klebsiella oxytoca</t>
         </is>
       </c>
       <c r="B72">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Enterobacter cloacae</t>
+          <t>Klebsiella oxytoca</t>
         </is>
       </c>
       <c r="B73">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Enterobacter cloacae</t>
+          <t>Klebsiella oxytoca</t>
         </is>
       </c>
       <c r="B74">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1590,27 +1590,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Enterobacter cloacae</t>
+          <t>Klebsiella oxytoca</t>
         </is>
       </c>
       <c r="B75">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C75">
         <v>8</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Enterobacter cloacae</t>
+          <t>Klebsiella oxytoca</t>
         </is>
       </c>
       <c r="B76">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C76">
         <v>16</v>
@@ -1622,123 +1622,123 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Enterobacter cloacae</t>
+          <t>Klebsiella oxytoca</t>
         </is>
       </c>
       <c r="B77">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C77">
         <v>32</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Enterobacter cloacae</t>
+          <t>Klebsiella oxytoca</t>
         </is>
       </c>
       <c r="B78">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C78">
         <v>64</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Achromobacter xylosoxidans</t>
         </is>
       </c>
       <c r="B79">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Achromobacter xylosoxidans</t>
         </is>
       </c>
       <c r="B80">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Achromobacter xylosoxidans</t>
         </is>
       </c>
       <c r="B81">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="C81">
         <v>4</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Achromobacter xylosoxidans</t>
         </is>
       </c>
       <c r="B82">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="C82">
         <v>8</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Achromobacter xylosoxidans</t>
         </is>
       </c>
       <c r="B83">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="C83">
         <v>16</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Achromobacter xylosoxidans</t>
         </is>
       </c>
       <c r="B84">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="C84">
         <v>32</v>
@@ -1750,155 +1750,155 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Achromobacter xylosoxidans</t>
         </is>
       </c>
       <c r="B85">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="C85">
         <v>64</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Hafnia alvei</t>
+          <t>Neisseria gonorrhoeae</t>
         </is>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Hafnia alvei</t>
+          <t>Neisseria gonorrhoeae</t>
         </is>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Hafnia alvei</t>
+          <t>Neisseria gonorrhoeae</t>
         </is>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C88">
         <v>4</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Hafnia alvei</t>
+          <t>Neisseria gonorrhoeae</t>
         </is>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C89">
         <v>8</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Hafnia alvei</t>
+          <t>Neisseria gonorrhoeae</t>
         </is>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C90">
         <v>16</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Hafnia alvei</t>
+          <t>Neisseria gonorrhoeae</t>
         </is>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C91">
         <v>32</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Hafnia alvei</t>
+          <t>Neisseria gonorrhoeae</t>
         </is>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C92">
         <v>64</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Klebsiella oxytoca</t>
+          <t>Hafnia alvei</t>
         </is>
       </c>
       <c r="B93">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Klebsiella oxytoca</t>
+          <t>Hafnia alvei</t>
         </is>
       </c>
       <c r="B94">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -1910,11 +1910,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Klebsiella oxytoca</t>
+          <t>Hafnia alvei</t>
         </is>
       </c>
       <c r="B95">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -1926,139 +1926,159 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Klebsiella oxytoca</t>
+          <t>Hafnia alvei</t>
         </is>
       </c>
       <c r="B96">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C96">
         <v>8</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Klebsiella oxytoca</t>
+          <t>Hafnia alvei</t>
         </is>
       </c>
       <c r="B97">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C97">
         <v>16</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Klebsiella oxytoca</t>
+          <t>Hafnia alvei</t>
         </is>
       </c>
       <c r="B98">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C98">
         <v>32</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Klebsiella oxytoca</t>
+          <t>Hafnia alvei</t>
         </is>
       </c>
       <c r="B99">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C99">
         <v>64</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Klebsiella pneumoniae</t>
+          <t>Salmonella spp.</t>
         </is>
       </c>
       <c r="B100">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>includes Salmonella enterica subsp. enterica serovar Enteritidis and serovar Typhi</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Klebsiella pneumoniae</t>
+          <t>Salmonella spp.</t>
         </is>
       </c>
       <c r="B101">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>includes Salmonella enterica subsp. enterica serovar Enteritidis and serovar Typhi</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Klebsiella pneumoniae</t>
+          <t>Salmonella spp.</t>
         </is>
       </c>
       <c r="B102">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="C102">
         <v>4</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>includes Salmonella enterica subsp. enterica serovar Enteritidis and serovar Typhi</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Klebsiella pneumoniae</t>
+          <t>Salmonella spp.</t>
         </is>
       </c>
       <c r="B103">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="C103">
         <v>8</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>includes Salmonella enterica subsp. enterica serovar Enteritidis and serovar Typhi</t>
+        </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Klebsiella pneumoniae</t>
+          <t>Salmonella spp.</t>
         </is>
       </c>
       <c r="B104">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="C104">
         <v>16</v>
@@ -2066,127 +2086,142 @@
       <c r="D104">
         <v>1</v>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>includes Salmonella enterica subsp. enterica serovar Enteritidis and serovar Typhi</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Klebsiella pneumoniae</t>
+          <t>Salmonella spp.</t>
         </is>
       </c>
       <c r="B105">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="C105">
         <v>32</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>includes Salmonella enterica subsp. enterica serovar Enteritidis and serovar Typhi</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Klebsiella pneumoniae</t>
+          <t>Salmonella spp.</t>
         </is>
       </c>
       <c r="B106">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="C106">
         <v>64</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>includes Salmonella enterica subsp. enterica serovar Enteritidis and serovar Typhi</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Moraxella osloensis</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="B107">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Moraxella osloensis</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="B108">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Moraxella osloensis</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="B109">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="C109">
         <v>4</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Moraxella osloensis</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="B110">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="C110">
         <v>8</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Moraxella osloensis</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="B111">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="C111">
         <v>16</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Moraxella osloensis</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="B112">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="C112">
         <v>32</v>
@@ -2198,187 +2233,187 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Moraxella osloensis</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="B113">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="C113">
         <v>64</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Morganella morganii</t>
+          <t>Proteus mirabilis</t>
         </is>
       </c>
       <c r="B114">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Morganella morganii</t>
+          <t>Proteus mirabilis</t>
         </is>
       </c>
       <c r="B115">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Morganella morganii</t>
+          <t>Proteus mirabilis</t>
         </is>
       </c>
       <c r="B116">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C116">
         <v>4</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Morganella morganii</t>
+          <t>Proteus mirabilis</t>
         </is>
       </c>
       <c r="B117">
+        <v>55</v>
+      </c>
+      <c r="C117">
+        <v>8</v>
+      </c>
+      <c r="D117">
         <v>22</v>
-      </c>
-      <c r="C117">
-        <v>8</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Morganella morganii</t>
+          <t>Proteus mirabilis</t>
         </is>
       </c>
       <c r="B118">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C118">
         <v>16</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Morganella morganii</t>
+          <t>Proteus mirabilis</t>
         </is>
       </c>
       <c r="B119">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C119">
         <v>32</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Morganella morganii</t>
+          <t>Proteus mirabilis</t>
         </is>
       </c>
       <c r="B120">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C120">
         <v>64</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Neisseria gonorrhoeae</t>
+          <t>Proteus vulgaris</t>
         </is>
       </c>
       <c r="B121">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Neisseria gonorrhoeae</t>
+          <t>Proteus vulgaris</t>
         </is>
       </c>
       <c r="B122">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Neisseria gonorrhoeae</t>
+          <t>Proteus vulgaris</t>
         </is>
       </c>
       <c r="B123">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C123">
         <v>4</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Neisseria gonorrhoeae</t>
+          <t>Proteus vulgaris</t>
         </is>
       </c>
       <c r="B124">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C124">
         <v>8</v>
@@ -2390,283 +2425,318 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Neisseria gonorrhoeae</t>
+          <t>Proteus vulgaris</t>
         </is>
       </c>
       <c r="B125">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C125">
         <v>16</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Neisseria gonorrhoeae</t>
+          <t>Proteus vulgaris</t>
         </is>
       </c>
       <c r="B126">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C126">
         <v>32</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Neisseria gonorrhoeae</t>
+          <t>Proteus vulgaris</t>
         </is>
       </c>
       <c r="B127">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C127">
         <v>64</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Proteus mirabilis</t>
+          <t>Shigella spp.</t>
         </is>
       </c>
       <c r="B128">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>includes Shigella sonnei and Shigella flexneri</t>
+        </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Proteus mirabilis</t>
+          <t>Shigella spp.</t>
         </is>
       </c>
       <c r="B129">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>includes Shigella sonnei and Shigella flexneri</t>
+        </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Proteus mirabilis</t>
+          <t>Shigella spp.</t>
         </is>
       </c>
       <c r="B130">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C130">
         <v>4</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>includes Shigella sonnei and Shigella flexneri</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Proteus mirabilis</t>
+          <t>Shigella spp.</t>
         </is>
       </c>
       <c r="B131">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C131">
         <v>8</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>includes Shigella sonnei and Shigella flexneri</t>
+        </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Proteus mirabilis</t>
+          <t>Shigella spp.</t>
         </is>
       </c>
       <c r="B132">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C132">
         <v>16</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>includes Shigella sonnei and Shigella flexneri</t>
+        </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Proteus mirabilis</t>
+          <t>Shigella spp.</t>
         </is>
       </c>
       <c r="B133">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C133">
         <v>32</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>includes Shigella sonnei and Shigella flexneri</t>
+        </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Proteus mirabilis</t>
+          <t>Shigella spp.</t>
         </is>
       </c>
       <c r="B134">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C134">
         <v>64</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>includes Shigella sonnei and Shigella flexneri</t>
+        </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Proteus vulgaris</t>
+          <t>Acinetobacter baumannii</t>
         </is>
       </c>
       <c r="B135">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Proteus vulgaris</t>
+          <t>Acinetobacter baumannii</t>
         </is>
       </c>
       <c r="B136">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Proteus vulgaris</t>
+          <t>Acinetobacter baumannii</t>
         </is>
       </c>
       <c r="B137">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="C137">
         <v>4</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Proteus vulgaris</t>
+          <t>Acinetobacter baumannii</t>
         </is>
       </c>
       <c r="B138">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="C138">
         <v>8</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Proteus vulgaris</t>
+          <t>Acinetobacter baumannii</t>
         </is>
       </c>
       <c r="B139">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="C139">
         <v>16</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Proteus vulgaris</t>
+          <t>Acinetobacter baumannii</t>
         </is>
       </c>
       <c r="B140">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="C140">
         <v>32</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Proteus vulgaris</t>
+          <t>Acinetobacter baumannii</t>
         </is>
       </c>
       <c r="B141">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="C141">
         <v>64</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Pseudomonas aeruginosa</t>
+          <t>Acinetobacter pittii</t>
         </is>
       </c>
       <c r="B142">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -2678,107 +2748,107 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Pseudomonas aeruginosa</t>
+          <t>Acinetobacter pittii</t>
         </is>
       </c>
       <c r="B143">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C143">
         <v>2</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Pseudomonas aeruginosa</t>
+          <t>Acinetobacter pittii</t>
         </is>
       </c>
       <c r="B144">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C144">
         <v>4</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Pseudomonas aeruginosa</t>
+          <t>Acinetobacter pittii</t>
         </is>
       </c>
       <c r="B145">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C145">
         <v>8</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Pseudomonas aeruginosa</t>
+          <t>Acinetobacter pittii</t>
         </is>
       </c>
       <c r="B146">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C146">
         <v>16</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Pseudomonas aeruginosa</t>
+          <t>Acinetobacter pittii</t>
         </is>
       </c>
       <c r="B147">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C147">
         <v>32</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Pseudomonas aeruginosa</t>
+          <t>Acinetobacter pittii</t>
         </is>
       </c>
       <c r="B148">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C148">
         <v>64</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Pseudomonas putida</t>
+          <t>Acinetobacter ursingii</t>
         </is>
       </c>
       <c r="B149">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -2790,27 +2860,27 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Pseudomonas putida</t>
+          <t>Acinetobacter ursingii</t>
         </is>
       </c>
       <c r="B150">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C150">
         <v>2</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Pseudomonas putida</t>
+          <t>Acinetobacter ursingii</t>
         </is>
       </c>
       <c r="B151">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C151">
         <v>4</v>
@@ -2822,497 +2892,427 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Pseudomonas putida</t>
+          <t>Acinetobacter ursingii</t>
         </is>
       </c>
       <c r="B152">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C152">
         <v>8</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Pseudomonas putida</t>
+          <t>Acinetobacter ursingii</t>
         </is>
       </c>
       <c r="B153">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C153">
         <v>16</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Pseudomonas putida</t>
+          <t>Acinetobacter ursingii</t>
         </is>
       </c>
       <c r="B154">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C154">
         <v>32</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Pseudomonas putida</t>
+          <t>Acinetobacter ursingii</t>
         </is>
       </c>
       <c r="B155">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C155">
         <v>64</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Salmonella spp.</t>
+          <t>Acinetobacter junii</t>
         </is>
       </c>
       <c r="B156">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>1</v>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>includes Salmonella enterica subsp. enterica serovar Enteritidis and serovar Typhi</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Salmonella spp.</t>
+          <t>Acinetobacter junii</t>
         </is>
       </c>
       <c r="B157">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C157">
         <v>2</v>
       </c>
       <c r="D157">
-        <v>1</v>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>includes Salmonella enterica subsp. enterica serovar Enteritidis and serovar Typhi</t>
-        </is>
+        <v>6</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Salmonella spp.</t>
+          <t>Acinetobacter junii</t>
         </is>
       </c>
       <c r="B158">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C158">
         <v>4</v>
       </c>
       <c r="D158">
-        <v>1</v>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>includes Salmonella enterica subsp. enterica serovar Enteritidis and serovar Typhi</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Salmonella spp.</t>
+          <t>Acinetobacter junii</t>
         </is>
       </c>
       <c r="B159">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C159">
         <v>8</v>
       </c>
       <c r="D159">
-        <v>1</v>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>includes Salmonella enterica subsp. enterica serovar Enteritidis and serovar Typhi</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Salmonella spp.</t>
+          <t>Acinetobacter junii</t>
         </is>
       </c>
       <c r="B160">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C160">
         <v>16</v>
       </c>
       <c r="D160">
-        <v>1</v>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>includes Salmonella enterica subsp. enterica serovar Enteritidis and serovar Typhi</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Salmonella spp.</t>
+          <t>Acinetobacter junii</t>
         </is>
       </c>
       <c r="B161">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C161">
         <v>32</v>
       </c>
       <c r="D161">
-        <v>1</v>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>includes Salmonella enterica subsp. enterica serovar Enteritidis and serovar Typhi</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Salmonella spp.</t>
+          <t>Acinetobacter junii</t>
         </is>
       </c>
       <c r="B162">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C162">
         <v>64</v>
       </c>
       <c r="D162">
-        <v>1</v>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>includes Salmonella enterica subsp. enterica serovar Enteritidis and serovar Typhi</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Serratia marcescens</t>
+          <t>Acinetobacter johnsonii</t>
         </is>
       </c>
       <c r="B163">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Serratia marcescens</t>
+          <t>Acinetobacter johnsonii</t>
         </is>
       </c>
       <c r="B164">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C164">
         <v>2</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Serratia marcescens</t>
+          <t>Acinetobacter johnsonii</t>
         </is>
       </c>
       <c r="B165">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C165">
         <v>4</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Serratia marcescens</t>
+          <t>Acinetobacter johnsonii</t>
         </is>
       </c>
       <c r="B166">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C166">
         <v>8</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Serratia marcescens</t>
+          <t>Acinetobacter johnsonii</t>
         </is>
       </c>
       <c r="B167">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C167">
         <v>16</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Serratia marcescens</t>
+          <t>Acinetobacter johnsonii</t>
         </is>
       </c>
       <c r="B168">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C168">
         <v>32</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Serratia marcescens</t>
+          <t>Acinetobacter johnsonii</t>
         </is>
       </c>
       <c r="B169">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C169">
         <v>64</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Shigella spp.</t>
+          <t>Acinetobacter lwoffii</t>
         </is>
       </c>
       <c r="B170">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>1</v>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>includes Shigella sonnei and Shigella flexneri</t>
-        </is>
+        <v>3</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Shigella spp.</t>
+          <t>Acinetobacter lwoffii</t>
         </is>
       </c>
       <c r="B171">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C171">
         <v>2</v>
       </c>
       <c r="D171">
-        <v>1</v>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>includes Shigella sonnei and Shigella flexneri</t>
-        </is>
+        <v>3</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Shigella spp.</t>
+          <t>Acinetobacter lwoffii</t>
         </is>
       </c>
       <c r="B172">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C172">
         <v>4</v>
       </c>
       <c r="D172">
-        <v>1</v>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>includes Shigella sonnei and Shigella flexneri</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Shigella spp.</t>
+          <t>Acinetobacter lwoffii</t>
         </is>
       </c>
       <c r="B173">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C173">
         <v>8</v>
       </c>
       <c r="D173">
-        <v>1</v>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>includes Shigella sonnei and Shigella flexneri</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Shigella spp.</t>
+          <t>Acinetobacter lwoffii</t>
         </is>
       </c>
       <c r="B174">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C174">
         <v>16</v>
       </c>
       <c r="D174">
-        <v>1</v>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>includes Shigella sonnei and Shigella flexneri</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Shigella spp.</t>
+          <t>Acinetobacter lwoffii</t>
         </is>
       </c>
       <c r="B175">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175">
         <v>32</v>
       </c>
       <c r="D175">
-        <v>1</v>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>includes Shigella sonnei and Shigella flexneri</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Shigella spp.</t>
+          <t>Acinetobacter lwoffii</t>
         </is>
       </c>
       <c r="B176">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C176">
         <v>64</v>
       </c>
       <c r="D176">
-        <v>1</v>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>includes Shigella sonnei and Shigella flexneri</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Stenotrophomonas maltophilia</t>
+          <t>Moraxella osloensis</t>
         </is>
       </c>
       <c r="B177">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Stenotrophomonas maltophilia</t>
+          <t>Moraxella osloensis</t>
         </is>
       </c>
       <c r="B178">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C178">
         <v>2</v>
@@ -3324,81 +3324,81 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Stenotrophomonas maltophilia</t>
+          <t>Moraxella osloensis</t>
         </is>
       </c>
       <c r="B179">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C179">
         <v>4</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Stenotrophomonas maltophilia</t>
+          <t>Moraxella osloensis</t>
         </is>
       </c>
       <c r="B180">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C180">
         <v>8</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Stenotrophomonas maltophilia</t>
+          <t>Moraxella osloensis</t>
         </is>
       </c>
       <c r="B181">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C181">
         <v>16</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Stenotrophomonas maltophilia</t>
+          <t>Moraxella osloensis</t>
         </is>
       </c>
       <c r="B182">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C182">
         <v>32</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Stenotrophomonas maltophilia</t>
+          <t>Moraxella osloensis</t>
         </is>
       </c>
       <c r="B183">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C183">
         <v>64</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
